--- a/Other Documents/Code/E0_fl.xlsx
+++ b/Other Documents/Code/E0_fl.xlsx
@@ -337,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4246"/>
+  <dimension ref="A1:B4270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B4246"/>
@@ -34313,6 +34313,198 @@
         <v>0.68716194411648968</v>
       </c>
     </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4247">
+        <v>106.53112941074448</v>
+      </c>
+      <c r="B4247">
+        <v>0.68610474222746942</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4248">
+        <v>106.27681769223427</v>
+      </c>
+      <c r="B4248">
+        <v>0.69619848484848512</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4249">
+        <v>106.02253414415759</v>
+      </c>
+      <c r="B4249">
+        <v>0.68338726879181422</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4250">
+        <v>105.76828096884238</v>
+      </c>
+      <c r="B4250">
+        <v>0.67795208579299482</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4251">
+        <v>105.5140603683526</v>
+      </c>
+      <c r="B4251">
+        <v>0.68494016135379776</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4252">
+        <v>105.25987454447102</v>
+      </c>
+      <c r="B4252">
+        <v>0.69619848484848479</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4253">
+        <v>105.00572569867884</v>
+      </c>
+      <c r="B4253">
+        <v>0.70046908697363219</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4254">
+        <v>104.75161603213711</v>
+      </c>
+      <c r="B4254">
+        <v>0.67872835497835515</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4255">
+        <v>104.49754774566745</v>
+      </c>
+      <c r="B4255">
+        <v>0.67834027941755193</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4256">
+        <v>104.24352303973311</v>
+      </c>
+      <c r="B4256">
+        <v>0.66708183785911068</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4257">
+        <v>103.98954411441994</v>
+      </c>
+      <c r="B4257">
+        <v>0.65892894529712698</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4258">
+        <v>103.73561316941725</v>
+      </c>
+      <c r="B4258">
+        <v>0.66902292404565111</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4259">
+        <v>103.48173240399879</v>
+      </c>
+      <c r="B4259">
+        <v>0.68338703266430523</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4260">
+        <v>103.22790401700374</v>
+      </c>
+      <c r="B4260">
+        <v>0.67601088154269928</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4261">
+        <v>102.97413020681792</v>
+      </c>
+      <c r="B4261">
+        <v>0.6814460645415189</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4262">
+        <v>102.72041317135356</v>
+      </c>
+      <c r="B4262">
+        <v>0.6756225698543884</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4263">
+        <v>102.46675510803205</v>
+      </c>
+      <c r="B4263">
+        <v>0.68765763478945297</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4264">
+        <v>102.21315821376378</v>
+      </c>
+      <c r="B4264">
+        <v>0.67018762298307766</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4265">
+        <v>101.95962468492961</v>
+      </c>
+      <c r="B4265">
+        <v>0.66824641873278234</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4266">
+        <v>101.70615671736073</v>
+      </c>
+      <c r="B4266">
+        <v>0.67096389216843777</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4267">
+        <v>101.45275650632139</v>
+      </c>
+      <c r="B4267">
+        <v>0.68222280598189688</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4268">
+        <v>101.19942624648871</v>
+      </c>
+      <c r="B4268">
+        <v>0.66397617079889815</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4269">
+        <v>100.946168131934</v>
+      </c>
+      <c r="B4269">
+        <v>0.66979954742227443</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4270">
+        <v>100.69298435610366</v>
+      </c>
+      <c r="B4270">
+        <v>0.66630533254624136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
